--- a/medicine/Handicap/Jean_Vanier/Jean_Vanier.xlsx
+++ b/medicine/Handicap/Jean_Vanier/Jean_Vanier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Vanier, né le 10 septembre 1928 à Genève et mort le 7 mai 2019 à Paris, est un militant catholique franco-canadien. Il s'est consacré aux personnes ayant une déficience intellectuelle : il crée la communauté de l'Arche en 1964, fonde en 1968 l'association Foi et Partage puis Foi et Lumière. Il est aussi à l'origine de la création de l'association Intercordia en 2000.
 Selon les enquêtes menées après sa mort, il a agressé sexuellement vingt-cinq femmes entre 1952 et 2019.
@@ -512,18 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nationalité canadienne[1], Jean Vanier naît en 1928, en Suisse, quatrième et avant-dernier enfant de la famille[2]. Son père, Georges Vanier, alors en mission auprès de la SDN, plus tard gouverneur général du Canada de 1959 à 1967, a fait carrière dans la diplomatie, entraînant sa famille au gré de ses fonctions en France et en Angleterre où Jean passe son enfance. En 1942, Jean rejoint la Marine royale britannique en tant que cadet au Collège naval de Dartmouth au Royaume-Uni. Il a alors 13 ans. Le jeune garçon s’embarque pour huit ans dans la marine anglaise, puis canadienne à partir de décembre 1947[3], en pleine Seconde Guerre mondiale. En 1950, il choisit de démissionner de la marine canadienne.
-L'Eau vive
-Son père, le général Georges Vanier, l'oriente alors en 1950 vers l'Eau vive, un centre de formation catholique international créé en 1946 et dirigé par le père dominicain Thomas Philippe[4]. Jean Vanier devient son « fils spirituel ». Impliqué en 1952 dans un scandale d'abus sexuel, Thomas Philippe est rappelé à Rome pour rendre compte de ses agissements. Jean Vanier prend à sa suite la direction de l'Eau vive.
-Malgré l'interdiction du Saint-Office chargé de l'enquête sur Thomas Philippe, Jean Vanier garde des contacts avec son « père spirituel » et sept femmes de l'Eau vive avec lesquelles il entretient des liens érotico-mystiques[5]. Le Saint-Office dissout l'Eau vive en 1956. Thomas Philippe est condamné à la peine vindicative de déposition qui lui interdit à vie d'exercer son ministère. Le noyau de l'Eau vive formé autour de Jean Vanier a interdiction de se reformer, mais perdure cependant[6].
-L’Arche
-En quête d'une vitrine honorable sous laquelle reformer le groupe de l'Eau vive autour de Thomas Philippe[5], Jean Vanier s'installe en 1964 avec lui et les autres femmes[7], en toute discrétion dans une maison près de Trosly-Breuil où ils accueillent deux handicapés mentaux rencontrés à l'asile psychiatrique de Saint-Jean-les-Deux-Jumeaux[8]. C'est ainsi que naît l'Arche dont Thomas Philippe devient l'aumônier, malgré la sentence de déposition de 1956[6].
-Foi et Lumière
-Parallèlement, Jean Vanier a cofondé Foi et Lumière avec Marie-Hélène Mathieu, « des communautés de rencontres » qui se tissent autour des personnes, enfants ou adultes ayant une déficience intellectuelle[9].
-Intercordia
-En 1999, Jean Vanier participe à la création de l’association Intercordia[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nationalité canadienne, Jean Vanier naît en 1928, en Suisse, quatrième et avant-dernier enfant de la famille. Son père, Georges Vanier, alors en mission auprès de la SDN, plus tard gouverneur général du Canada de 1959 à 1967, a fait carrière dans la diplomatie, entraînant sa famille au gré de ses fonctions en France et en Angleterre où Jean passe son enfance. En 1942, Jean rejoint la Marine royale britannique en tant que cadet au Collège naval de Dartmouth au Royaume-Uni. Il a alors 13 ans. Le jeune garçon s’embarque pour huit ans dans la marine anglaise, puis canadienne à partir de décembre 1947, en pleine Seconde Guerre mondiale. En 1950, il choisit de démissionner de la marine canadienne.
 </t>
         </is>
       </c>
@@ -549,18 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enquête sur des abus sexuels</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jean Vanier meurt à Paris le 7 mai 2019[11]. Le 22 février 2020, une enquête[12] diligentée par l'Arche est rendue publique[13]. Elle conclut que Jean Vanier avait poursuivi ses relations avec le père Thomas Philippe, qu'il était au courant de ses agissements, et qu'il a lui-même abusé sexuellement d'au moins six femmes adultes entre 1970 et 2005[6]. Selon les termes du rapport, Vanier « a usé de son ascendant pour profiter d'elles à travers divers comportements sexuels »[14],[15].
-Jean Vanier et Thomas Philippe « ont non seulement partagé des proies mais ils pourraient aussi avoir entretenu une relation homosexuelle. « Cette question est posée. Elle est légitime et fera partie du champ de la recherche », confirme Stephan Posner. »[6].
-Responsable international de l'Arche, ce dernier déclare : « Notre histoire fondatrice vole en éclat, tout comme notre mythe fondateur »[16]. Pierre Jacquand, responsable de l'Arche en France exprime son désarroi : « L'écart est si vertigineux entre l'homme que j'ai connu et celui que je découvre… je lutte pour accepter, alors même que je sais les faits indiscutables »[16]. Louis Pilotte, responsable national de l'Arche au Canada, se déclare sous le « choc », « abasourdi » par cette nouvelle concernant un homme qu'il connaissait personnellement : « c'est pire que tout ce qu'on aurait pu imaginer »[14].
-Selon François-Xavier Maigre, rédacteur en chef du Pèlerin Magazine, « Le choc de ces révélations est double : contrairement à ce qu’il a toujours clamé, Jean Vanier a su dès les années 1950 que son père spirituel, le dominicain Thomas Philippe, avait été condamné par l’Église en raison de ses pratiques sexuelles, et de la mystique déviante qui les sous-tendait. Pire : il y a lui-même pris part, et perpétué, jusqu’à une période récente, ces relations d’emprise avec des femmes auxquelles il imposait des relations intimes, sous couvert de justifications mystiques »[17].
-La Conférence des évêques de France exprime sa « stupeur » et sa « douleur » face à ces révélations[18].
-En novembre 2020, une commission pluridisciplinaire d'études est mise en place par l'Arche qui doit remettre ses conclusions en octobre 2022 : « [...] ces révélations ne mettent pas un terme aux interrogations importantes qu’elles  génèrent  et  exigent  de  l’Arche  une  compréhension  rigoureuse  et  profonde  lui permettant de tirer toutes les conséquences possibles quant à son histoire, sa culture et son fonctionnement d’hier et d’aujourd’hui. »[19].
-Le rapport de la commission indépendante mandatée par l’Arche est publié le 30 janvier 2023. Celui-ci mentionne des agressions sexuelles contre vingt-cinq femmes entre 1952 et 2019. Selon les responsables de l'Arche : « Certaines se sont présentées comme victimes d’une relation abusive, d’autres plutôt comme des partenaires consentantes d’une relation transgressive. Ces relations (…) s’inscrivent toutes dans un continuum de confusion, d’emprise et d’abus »[20].
+          <t>L'Eau vive</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père, le général Georges Vanier, l'oriente alors en 1950 vers l'Eau vive, un centre de formation catholique international créé en 1946 et dirigé par le père dominicain Thomas Philippe. Jean Vanier devient son « fils spirituel ». Impliqué en 1952 dans un scandale d'abus sexuel, Thomas Philippe est rappelé à Rome pour rendre compte de ses agissements. Jean Vanier prend à sa suite la direction de l'Eau vive.
+Malgré l'interdiction du Saint-Office chargé de l'enquête sur Thomas Philippe, Jean Vanier garde des contacts avec son « père spirituel » et sept femmes de l'Eau vive avec lesquelles il entretient des liens érotico-mystiques. Le Saint-Office dissout l'Eau vive en 1956. Thomas Philippe est condamné à la peine vindicative de déposition qui lui interdit à vie d'exercer son ministère. Le noyau de l'Eau vive formé autour de Jean Vanier a interdiction de se reformer, mais perdure cependant.
 </t>
         </is>
       </c>
@@ -586,53 +592,278 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L’Arche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En quête d'une vitrine honorable sous laquelle reformer le groupe de l'Eau vive autour de Thomas Philippe, Jean Vanier s'installe en 1964 avec lui et les autres femmes, en toute discrétion dans une maison près de Trosly-Breuil où ils accueillent deux handicapés mentaux rencontrés à l'asile psychiatrique de Saint-Jean-les-Deux-Jumeaux. C'est ainsi que naît l'Arche dont Thomas Philippe devient l'aumônier, malgré la sentence de déposition de 1956.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Foi et Lumière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement, Jean Vanier a cofondé Foi et Lumière avec Marie-Hélène Mathieu, « des communautés de rencontres » qui se tissent autour des personnes, enfants ou adultes ayant une déficience intellectuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Intercordia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, Jean Vanier participe à la création de l’association Intercordia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Enquête sur des abus sexuels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Vanier meurt à Paris le 7 mai 2019. Le 22 février 2020, une enquête diligentée par l'Arche est rendue publique. Elle conclut que Jean Vanier avait poursuivi ses relations avec le père Thomas Philippe, qu'il était au courant de ses agissements, et qu'il a lui-même abusé sexuellement d'au moins six femmes adultes entre 1970 et 2005. Selon les termes du rapport, Vanier « a usé de son ascendant pour profiter d'elles à travers divers comportements sexuels »,.
+Jean Vanier et Thomas Philippe « ont non seulement partagé des proies mais ils pourraient aussi avoir entretenu une relation homosexuelle. « Cette question est posée. Elle est légitime et fera partie du champ de la recherche », confirme Stephan Posner. ».
+Responsable international de l'Arche, ce dernier déclare : « Notre histoire fondatrice vole en éclat, tout comme notre mythe fondateur ». Pierre Jacquand, responsable de l'Arche en France exprime son désarroi : « L'écart est si vertigineux entre l'homme que j'ai connu et celui que je découvre… je lutte pour accepter, alors même que je sais les faits indiscutables ». Louis Pilotte, responsable national de l'Arche au Canada, se déclare sous le « choc », « abasourdi » par cette nouvelle concernant un homme qu'il connaissait personnellement : « c'est pire que tout ce qu'on aurait pu imaginer ».
+Selon François-Xavier Maigre, rédacteur en chef du Pèlerin Magazine, « Le choc de ces révélations est double : contrairement à ce qu’il a toujours clamé, Jean Vanier a su dès les années 1950 que son père spirituel, le dominicain Thomas Philippe, avait été condamné par l’Église en raison de ses pratiques sexuelles, et de la mystique déviante qui les sous-tendait. Pire : il y a lui-même pris part, et perpétué, jusqu’à une période récente, ces relations d’emprise avec des femmes auxquelles il imposait des relations intimes, sous couvert de justifications mystiques ».
+La Conférence des évêques de France exprime sa « stupeur » et sa « douleur » face à ces révélations.
+En novembre 2020, une commission pluridisciplinaire d'études est mise en place par l'Arche qui doit remettre ses conclusions en octobre 2022 : « [...] ces révélations ne mettent pas un terme aux interrogations importantes qu’elles  génèrent  et  exigent  de  l’Arche  une  compréhension  rigoureuse  et  profonde  lui permettant de tirer toutes les conséquences possibles quant à son histoire, sa culture et son fonctionnement d’hier et d’aujourd’hui. ».
+Le rapport de la commission indépendante mandatée par l’Arche est publié le 30 janvier 2023. Celui-ci mentionne des agressions sexuelles contre vingt-cinq femmes entre 1952 et 2019. Selon les responsables de l'Arche : « Certaines se sont présentées comme victimes d’une relation abusive, d’autres plutôt comme des partenaires consentantes d’une relation transgressive. Ces relations (…) s’inscrivent toutes dans un continuum de confusion, d’emprise et d’abus ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Décorations
-Commandeur de la Légion d'honneur (2015)
-Compagnon de l'ordre du Canada (1989)[21]
-Grand officier de l'ordre national du Québec (1992)[22]
-Prix
-Notre Dame Award for International Humanitarian Service (1994) de l'Université de Notre-Dame-du-Lac qui lui est retiré en 2020[23]
-Prix Pacem in Terris (2013)[24]
-Prix Templeton (2015)[25]
-Hommages
-L'astéroïde (8604) Vanier porte son nom depuis 2010[26].
-Une dizaine d'écoles catholiques portent son nom en Ontario[14]. À la suite de la révélation des abus sexuels de Jean Vanier, celle de Welland a changé le sien en 2020[27].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Commandeur de la Légion d'honneur (2015)
+Compagnon de l'ordre du Canada (1989)
+Grand officier de l'ordre national du Québec (1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Notre Dame Award for International Humanitarian Service (1994) de l'Université de Notre-Dame-du-Lac qui lui est retiré en 2020
+Prix Pacem in Terris (2013)
+Prix Templeton (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'astéroïde (8604) Vanier porte son nom depuis 2010.
+Une dizaine d'écoles catholiques portent son nom en Ontario. À la suite de la révélation des abus sexuels de Jean Vanier, celle de Welland a changé le sien en 2020.
 Stefan Foltzer, Jean-Marie Guénois et Julien Jeffredo, « Revivez les obsèques de Jean Vanier », Le Figaro,‎ 16 mai 2019 (lire en ligne, consulté le 11 février 2020).
 Guyonne de Montjou, « Jean Vanier: “L'espérance est dans la rencontre vraie” », Le Figaro,‎ 29 juillet 2016 (lire en ligne, consulté le 11 février 2020).
 Adélaïde Patrignani - Cité du Vatican, « Mort de Jean Vanier, un géant de la tendresse de Dieu - Entretien avec Jean Vanier - 21 mars 2014 », sur News.va.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jean_Vanier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean_Vanier</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Vanier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ma faiblesse, c'est ma force : un aperçu de la vie intérieure du général Georges P. Vanier, gouverneur général du Canada de 1960 à 1967, 1970
